--- a/Resource/excel/1000-属性配置.xlsx
+++ b/Resource/excel/1000-属性配置.xlsx
@@ -22,6 +22,9 @@
     <t>#class</t>
   </si>
   <si>
+    <t>注释</t>
+  </si>
+  <si>
     <t>类名称</t>
   </si>
   <si>
@@ -31,9 +34,6 @@
     <t>类型</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
     <t>属性配置</t>
   </si>
   <si>
@@ -100,7 +100,10 @@
     <t>删除回调</t>
   </si>
   <si>
-    <t>Class(string)</t>
+    <t>Comment(string)</t>
+  </si>
+  <si>
+    <t>Id(string)</t>
   </si>
   <si>
     <t>Name(string)</t>
@@ -109,9 +112,6 @@
     <t>Type(string)</t>
   </si>
   <si>
-    <t>Comment(string)</t>
-  </si>
-  <si>
     <t>Element(string)</t>
   </si>
   <si>
@@ -178,6 +178,9 @@
     <t>RemoveFunction(string)</t>
   </si>
   <si>
+    <t>基础属性</t>
+  </si>
+  <si>
     <t>Global</t>
   </si>
   <si>
@@ -187,46 +190,46 @@
     <t>object</t>
   </si>
   <si>
-    <t>基础属性</t>
-  </si>
-  <si>
     <t>BasicPlayer</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>玩家类属性</t>
+  </si>
+  <si>
     <t>player</t>
   </si>
   <si>
-    <t>玩家类属性</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
+    <t>玩家id</t>
+  </si>
+  <si>
     <t>uint64</t>
   </si>
   <si>
-    <t>玩家id</t>
-  </si>
-  <si>
     <t>玩家基本属性</t>
   </si>
   <si>
+    <t>玩家账号(服务器使用)</t>
+  </si>
+  <si>
     <t>account</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>玩家账号(服务器使用)</t>
+    <t>玩家账号id(服务器使用)</t>
   </si>
   <si>
     <t>accountid</t>
   </si>
   <si>
-    <t>玩家账号id(服务器使用)</t>
+    <t>玩家渠道id(服务器使用)</t>
   </si>
   <si>
     <t>channel</t>
@@ -235,37 +238,37 @@
     <t>uint32</t>
   </si>
   <si>
-    <t>玩家渠道id(服务器使用)</t>
+    <t>玩家所在的gateid(服务器使用)</t>
   </si>
   <si>
     <t>gateid</t>
   </si>
   <si>
-    <t>玩家所在的gateid(服务器使用)</t>
+    <t>创建时间(服务器使用)</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>创建时间(服务器使用)</t>
+    <t>本次上线时间(服务器使用)</t>
   </si>
   <si>
     <t>onlinetime</t>
   </si>
   <si>
-    <t>本次上线时间(服务器使用)</t>
+    <t>上次下线时间(服务器使用)</t>
   </si>
   <si>
     <t>offlinetime</t>
   </si>
   <si>
-    <t>上次下线时间(服务器使用)</t>
+    <t>游戏内在线总时长(服务器使用，做一些成就和统计)</t>
   </si>
   <si>
     <t>totaltime</t>
   </si>
   <si>
-    <t>游戏内在线总时长(服务器使用，做一些成就和统计)</t>
+    <t>英雄列表</t>
   </si>
   <si>
     <t>hero</t>
@@ -274,43 +277,40 @@
     <t>record</t>
   </si>
   <si>
-    <t>英雄列表</t>
-  </si>
-  <si>
     <t>英雄</t>
   </si>
   <si>
     <t>Hero</t>
   </si>
   <si>
+    <t>出战的英雄</t>
+  </si>
+  <si>
     <t>heroid</t>
   </si>
   <si>
-    <t>出战的英雄</t>
+    <t>正在匹配的id</t>
   </si>
   <si>
     <t>matchid</t>
   </si>
   <si>
-    <t>正在匹配的id</t>
+    <t>匹配服务器的id( 服务器使用 )</t>
   </si>
   <si>
     <t>matchserverid</t>
   </si>
   <si>
-    <t>匹配服务器的id( 服务器使用 )</t>
+    <t>玩家所在的战场房间id</t>
   </si>
   <si>
     <t>roomid</t>
   </si>
   <si>
-    <t>玩家所在的战场房间id</t>
+    <t>房间服务器的id( 服务器使用 )</t>
   </si>
   <si>
     <t>roomserverid</t>
-  </si>
-  <si>
-    <t>房间服务器的id( 服务器使用 )</t>
   </si>
   <si>
     <r>
@@ -342,22 +342,25 @@
     </r>
   </si>
   <si>
+    <t>玩家名字</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>玩家名字</t>
+    <t>玩家性别</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>玩家性别</t>
+    <t>玩家状态</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>玩家状态</t>
+    <t>玩家状态时间</t>
   </si>
   <si>
     <r>
@@ -409,19 +412,16 @@
     </r>
   </si>
   <si>
-    <t>玩家状态时间</t>
+    <t>玩家所在服务器id</t>
   </si>
   <si>
     <t>serverid</t>
   </si>
   <si>
-    <t>玩家所在服务器id</t>
+    <t>玩家段位积分</t>
   </si>
   <si>
     <t>grade</t>
-  </si>
-  <si>
-    <t>玩家段位积分</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -468,7 +468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,40 +481,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,51 +506,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,9 +520,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,6 +587,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -663,187 +663,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,18 +876,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,24 +916,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,17 +950,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,10 +977,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,133 +989,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,20 +1570,21 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="14.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="48.5" style="9" customWidth="1"/>
+    <col min="2" max="3" width="14.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="9" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="9" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="9" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="9" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="9" customWidth="1"/>
@@ -1688,7 +1689,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:26">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1697,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -1904,16 +1905,16 @@
     </row>
     <row r="6" s="5" customFormat="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>61</v>
@@ -1960,13 +1961,13 @@
     </row>
     <row r="7" s="6" customFormat="1" spans="1:22">
       <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>63</v>
@@ -2010,16 +2011,16 @@
     </row>
     <row r="8" s="6" customFormat="1" spans="1:22">
       <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>57</v>
@@ -2066,10 +2067,10 @@
     </row>
     <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>66</v>
@@ -2116,16 +2117,16 @@
     </row>
     <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
@@ -2166,10 +2167,10 @@
     </row>
     <row r="11" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>71</v>
@@ -2216,16 +2217,16 @@
     </row>
     <row r="12" s="6" customFormat="1" spans="1:22">
       <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K12" s="6">
         <v>1</v>
@@ -2266,16 +2267,16 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K13" s="6">
         <v>1</v>
@@ -2316,16 +2317,16 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
@@ -2366,16 +2367,16 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K15" s="6">
         <v>1</v>
@@ -2416,16 +2417,16 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -2466,10 +2467,10 @@
     </row>
     <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>84</v>
@@ -2525,16 +2526,16 @@
     </row>
     <row r="18" s="6" customFormat="1" spans="1:22">
       <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K18" s="6">
         <v>1</v>
@@ -2575,16 +2576,16 @@
     </row>
     <row r="19" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
@@ -2625,16 +2626,16 @@
     </row>
     <row r="20" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
@@ -2675,16 +2676,16 @@
     </row>
     <row r="21" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -2725,16 +2726,16 @@
     </row>
     <row r="22" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="K22" s="6">
         <v>1</v>
@@ -2775,13 +2776,13 @@
     </row>
     <row r="23" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>63</v>
@@ -2825,16 +2826,16 @@
     </row>
     <row r="24" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -2875,16 +2876,16 @@
     </row>
     <row r="25" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2925,16 +2926,16 @@
     </row>
     <row r="26" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -2975,10 +2976,10 @@
     </row>
     <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>106</v>
@@ -3025,16 +3026,16 @@
     </row>
     <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="C28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -3075,16 +3076,16 @@
     </row>
     <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
@@ -3125,16 +3126,16 @@
     </row>
     <row r="30" s="8" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>58</v>

--- a/Resource/excel/1000-属性配置.xlsx
+++ b/Resource/excel/1000-属性配置.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>#class</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>totaltime</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
   <si>
     <t>英雄列表</t>
@@ -429,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -468,7 +480,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,24 +508,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,7 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,14 +562,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,17 +592,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,21 +614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,8 +622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,187 +675,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,45 +889,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,11 +925,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,6 +940,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -977,10 +989,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,133 +1001,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,14 +1579,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2476,72 +2488,69 @@
         <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A18" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0</v>
-      </c>
-      <c r="V17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" spans="1:22">
-      <c r="A18" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="E18" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="K18" s="6">
         <v>1</v>
       </c>
       <c r="L18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -2574,24 +2583,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="19" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A19" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>72</v>
+      <c r="I19" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
@@ -2624,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="20" s="6" customFormat="1" spans="1:22">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
@@ -2650,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="6">
         <v>0</v>
@@ -2685,7 +2703,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -2700,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
@@ -2774,118 +2792,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7">
-        <v>1</v>
-      </c>
-      <c r="P23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>1</v>
-      </c>
-      <c r="T23" s="7">
-        <v>1</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1</v>
-      </c>
-      <c r="V23" s="7">
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
-      <c r="A24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="7" t="s">
+    <row r="24" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7">
-        <v>1</v>
-      </c>
-      <c r="P24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>1</v>
-      </c>
-      <c r="R24" s="7">
-        <v>1</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="7">
-        <v>1</v>
-      </c>
-      <c r="U24" s="7">
-        <v>1</v>
-      </c>
-      <c r="V24" s="7">
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A25" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2929,13 +2947,13 @@
         <v>103</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -2947,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="7">
         <v>1</v>
@@ -2979,13 +2997,13 @@
         <v>105</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7">
         <v>1</v>
@@ -2997,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="7">
         <v>1</v>
@@ -3026,16 +3044,16 @@
     </row>
     <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -3076,104 +3094,204 @@
     </row>
     <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>1</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1</v>
+      </c>
+      <c r="T30" s="7">
+        <v>1</v>
+      </c>
+      <c r="U30" s="7">
+        <v>1</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>1</v>
-      </c>
-      <c r="R29" s="7">
-        <v>1</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1</v>
-      </c>
-      <c r="T29" s="7">
-        <v>1</v>
-      </c>
-      <c r="U29" s="7">
-        <v>1</v>
-      </c>
-      <c r="V29" s="7">
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>1</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1</v>
+      </c>
+      <c r="U31" s="7">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" ht="15" customHeight="1" spans="1:22">
-      <c r="A30" s="8" t="s">
+    <row r="32" s="8" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30" s="8">
-        <v>1</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="8">
-        <v>0</v>
-      </c>
-      <c r="V30" s="8">
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
         <v>0</v>
       </c>
     </row>
